--- a/biology/Botanique/Buglossoides_purpurocaerulea/Buglossoides_purpurocaerulea.xlsx
+++ b/biology/Botanique/Buglossoides_purpurocaerulea/Buglossoides_purpurocaerulea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Buglossoides purpurocaerulea
 Le Grémil pourpre bleu (Buglossoides purpurocaerulea) est une plante herbacée vivace, rhizomateuse, de la famille des Boraginacées.
@@ -512,7 +524,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Synonyme
 Lithospermum purpurocaeruleum L.
@@ -546,9 +560,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante[1] vivace aux fleurs violacées puis bleu-azur. Les graines sont blanches, brillantes, et très dures. Ces caractéristiques ont donné son nom à la plante : Lithospermum purpurocaeruleum. La taille de ce Grémil est généralement de 30 cm de hauteur et il s'étend sur environ 1 mètre de long avec de nombreuses pousses qui drageonnent. Les feuilles sont étroites.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante vivace aux fleurs violacées puis bleu-azur. Les graines sont blanches, brillantes, et très dures. Ces caractéristiques ont donné son nom à la plante : Lithospermum purpurocaeruleum. La taille de ce Grémil est généralement de 30 cm de hauteur et il s'étend sur environ 1 mètre de long avec de nombreuses pousses qui drageonnent. Les feuilles sont étroites.
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante subméditerranéenne, thermophile.
 </t>
